--- a/nanDECK/Cards/Minister of Defence/Minister of Defence.xlsx
+++ b/nanDECK/Cards/Minister of Defence/Minister of Defence.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4877ff4c3120fcf5/board game design/Space Roles Game/nanDECK/Cards/Minister of Defence/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\keremataman\GitHub\kardashev-scale\nanDECK\Cards\Minister of Defence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="443" documentId="11_F25DC773A252ABDACC1048E5A95D6B645ADE58EF" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB78B14C-9FA0-4524-B853-E3623D804D23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82CA9047-B2A8-48AF-8804-1C46DDB34870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="-120" windowWidth="27780" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -45,27 +46,15 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Shill</t>
-  </si>
-  <si>
     <t>Basic Action</t>
   </si>
   <si>
-    <t>Gain twice as much money from your reserve workers at the end of your turn</t>
-  </si>
-  <si>
-    <t>Recruit</t>
-  </si>
-  <si>
     <t>Nuke</t>
   </si>
   <si>
     <t>Build Nukes</t>
   </si>
   <si>
-    <t>Spend 1 uranium. Build 1 nuke</t>
-  </si>
-  <si>
     <t>Gold Cost</t>
   </si>
   <si>
@@ -120,17 +109,10 @@
     <t>Play only if you have the most military units. Gain 3 hard power tokens</t>
   </si>
   <si>
-    <t>Add 1 unit from the worker reserve to your worker pool, or spend X gold to convert X workers to soldiers, then place them in any of your tiles</t>
-  </si>
-  <si>
     <t>Select a tile you own, then place a war plan token on there. For any battle you conduct, roll 1 extra dice for each war plan token at tiles in or adjacent to the tile you are battling in</t>
   </si>
   <si>
     <t>Terrorism</t>
-  </si>
-  <si>
-    <t>Senate votes on whether to activate this card or not. 
-If the vote passes, spend a nuke, then select a tile not adjacent to a nation that has at least one nuke. Remove all military units and workers inside the selected tile and the tiles adjacent to it. Nothing can be placed on those tiles for two turns</t>
   </si>
   <si>
     <t>Clear Terrorist tile</t>
@@ -155,6 +137,16 @@
   </si>
   <si>
     <t>C:\Users\LPMSI00094\OneDrive\board game design\Space Roles Game\nanDECK\Cards\Minister of Defence\Minister of Defence.jpg</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Spend X uranium. Build X nukes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senate votes on whether to activate this card or not. 
+If the vote passes, spend a nuke, then select a tile that is not in or adjacent to a Nation that has nuke(s). Remove all military units and workers inside the selected tile and the tiles adjacent to it. Nothing can be placed on those tiles for two turns. Decrease relations with all Nations by 1. If a Nation has a tile affected by </t>
   </si>
 </sst>
 </file>
@@ -494,17 +486,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="147.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -512,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -526,107 +518,107 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
       <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -634,47 +626,47 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -682,115 +674,81 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
